--- a/AnálisisDeVariablesMineríaProyecto.xlsx
+++ b/AnálisisDeVariablesMineríaProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e33cfaa1c212cb87/Documentos/3er año/1er semestre/Minería de datos/proyecto/ProyectoMineriaDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00003093-B482-49B6-A8DF-FD7850D1C55B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28B95DC6-1FD3-4C05-BE0C-90F1D764DF3C}"/>
   </bookViews>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA4E85-3164-4B7F-A7CB-5B9FCFE537BF}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="64" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="9"/>
@@ -2363,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="9"/>
@@ -2483,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>64</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="19"/>
       <c r="C26" s="9" t="s">
@@ -2643,7 +2643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="19"/>
       <c r="C27" s="9" t="s">
@@ -3287,7 +3287,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="22">
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="42" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="22">

--- a/AnálisisDeVariablesMineríaProyecto.xlsx
+++ b/AnálisisDeVariablesMineríaProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e33cfaa1c212cb87/Documentos/3er año/1er semestre/Minería de datos/proyecto/ProyectoMineriaDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00003093-B482-49B6-A8DF-FD7850D1C55B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{71D35CA0-FD26-4197-A35A-2605235249C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28B95DC6-1FD3-4C05-BE0C-90F1D764DF3C}"/>
   </bookViews>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA4E85-3164-4B7F-A7CB-5B9FCFE537BF}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="64" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="47" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3166,9 +3166,7 @@
       <c r="A37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="22">
-        <v>19</v>
-      </c>
+      <c r="B37" s="22"/>
       <c r="C37" s="30" t="s">
         <v>33</v>
       </c>

--- a/AnálisisDeVariablesMineríaProyecto.xlsx
+++ b/AnálisisDeVariablesMineríaProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e33cfaa1c212cb87/Documentos/3er año/1er semestre/Minería de datos/proyecto/ProyectoMineriaDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{71D35CA0-FD26-4197-A35A-2605235249C2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0C7D4E75-6C73-4CD2-8A96-3BCCBA482C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1F697635-ACB5-4EC8-8969-153B760C3553}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28B95DC6-1FD3-4C05-BE0C-90F1D764DF3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="109">
   <si>
     <t>col 2019</t>
   </si>
@@ -292,6 +292,75 @@
   </si>
   <si>
     <t xml:space="preserve">Buscar lo de Grupo étnico y pueblo de pertenencia </t>
+  </si>
+  <si>
+    <t>DEPREG</t>
+  </si>
+  <si>
+    <t>MUPREG</t>
+  </si>
+  <si>
+    <t>MESREG</t>
+  </si>
+  <si>
+    <t>AÑOREG</t>
+  </si>
+  <si>
+    <t>AÑOOCU</t>
+  </si>
+  <si>
+    <t>CLAUNI</t>
+  </si>
+  <si>
+    <t>NUNUHO</t>
+  </si>
+  <si>
+    <t>NUNUMU</t>
+  </si>
+  <si>
+    <t>EDADHOM</t>
+  </si>
+  <si>
+    <t>EDADMUJ</t>
+  </si>
+  <si>
+    <t>GETHOM</t>
+  </si>
+  <si>
+    <t>GETMUJ</t>
+  </si>
+  <si>
+    <t>NACHOM</t>
+  </si>
+  <si>
+    <t>NACMUJ</t>
+  </si>
+  <si>
+    <t>ESCHOM</t>
+  </si>
+  <si>
+    <t>ESCMUJ</t>
+  </si>
+  <si>
+    <t>CIUOHOM</t>
+  </si>
+  <si>
+    <t>CIUOMUJ</t>
+  </si>
+  <si>
+    <t>DEPOCU</t>
+  </si>
+  <si>
+    <t>MUPOCU</t>
+  </si>
+  <si>
+    <t>DIAOCU</t>
+  </si>
+  <si>
+    <t>MESOCU</t>
+  </si>
+  <si>
+    <t>AREAGOCU</t>
   </si>
 </sst>
 </file>
@@ -742,9 +811,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -776,6 +842,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EA4E85-3164-4B7F-A7CB-5B9FCFE537BF}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="47" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="47" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2384,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="11"/>
       <c r="F21" s="19"/>
       <c r="G21" s="11"/>
@@ -2367,7 +2436,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="11"/>
       <c r="F22" s="19"/>
       <c r="G22" s="11"/>
@@ -2495,7 +2564,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="19"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="11"/>
       <c r="J24" s="19"/>
       <c r="K24" s="11"/>
@@ -2543,7 +2612,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="19"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="29"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="11"/>
       <c r="J25" s="19"/>
       <c r="K25" s="11"/>
@@ -2803,46 +2872,46 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="45" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44" t="s">
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25">
@@ -2897,16 +2966,16 @@
       <c r="B33" s="22">
         <v>1</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>1</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <v>1</v>
       </c>
       <c r="G33" s="21" t="s">
@@ -2965,16 +3034,16 @@
       <c r="B34" s="22">
         <v>2</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>2</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <v>2</v>
       </c>
       <c r="G34" s="21" t="s">
@@ -3033,16 +3102,16 @@
       <c r="B35" s="22">
         <v>3</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <v>3</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="30">
         <v>3</v>
       </c>
       <c r="G35" s="21" t="s">
@@ -3101,16 +3170,16 @@
       <c r="B36" s="22">
         <v>4</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <v>4</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>4</v>
       </c>
       <c r="G36" s="21" t="s">
@@ -3167,24 +3236,24 @@
         <v>32</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>20</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30">
         <v>20</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="21" t="s">
         <v>34</v>
       </c>
@@ -3223,16 +3292,16 @@
       <c r="B38" s="22">
         <v>5</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <v>5</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <v>5</v>
       </c>
       <c r="G38" s="21" t="s">
@@ -3285,22 +3354,22 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="22">
         <v>14</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="21" t="s">
         <v>65</v>
       </c>
@@ -3333,22 +3402,22 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="22">
         <v>15</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="21" t="s">
         <v>67</v>
       </c>
@@ -3387,16 +3456,16 @@
       <c r="B41" s="22">
         <v>6</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <v>6</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <v>6</v>
       </c>
       <c r="G41" s="21" t="s">
@@ -3455,16 +3524,16 @@
       <c r="B42" s="22">
         <v>7</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <v>7</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>7</v>
       </c>
       <c r="G42" s="21" t="s">
@@ -3517,28 +3586,28 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="42">
         <v>8</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="42">
         <v>8</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="42">
         <v>8</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="42">
         <v>8</v>
       </c>
       <c r="I43" s="21" t="s">
@@ -3585,28 +3654,28 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="42">
         <v>9</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="42">
         <v>9</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="42">
         <v>9</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="42">
         <v>9</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -3659,16 +3728,16 @@
       <c r="B45" s="22">
         <v>10</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="30">
         <v>10</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="30">
         <v>10</v>
       </c>
       <c r="G45" s="21" t="s">
@@ -3727,16 +3796,16 @@
       <c r="B46" s="22">
         <v>11</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <v>11</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="30">
         <v>11</v>
       </c>
       <c r="G46" s="21" t="s">
@@ -3789,18 +3858,18 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="30" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="30">
         <v>12</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="30">
         <v>12</v>
       </c>
       <c r="G47" s="21" t="s">
@@ -3853,18 +3922,18 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="30">
         <v>13</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <v>13</v>
       </c>
       <c r="G48" s="21" t="s">
@@ -3917,28 +3986,28 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="30">
         <v>12</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="30">
         <v>14</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="30">
         <v>14</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="30">
         <v>14</v>
       </c>
       <c r="I49" s="21" t="s">
@@ -3985,28 +4054,28 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="30">
         <v>13</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="30">
         <v>15</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="30">
         <v>15</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="30">
         <v>15</v>
       </c>
       <c r="I50" s="21" t="s">
@@ -4059,16 +4128,16 @@
       <c r="B51" s="22">
         <v>16</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <v>16</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="30">
         <v>16</v>
       </c>
       <c r="G51" s="21" t="s">
@@ -4127,16 +4196,16 @@
       <c r="B52" s="22">
         <v>17</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="30">
         <v>17</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="30">
         <v>17</v>
       </c>
       <c r="G52" s="21" t="s">
@@ -4189,18 +4258,18 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="30" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="30">
         <v>18</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="30">
         <v>18</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -4259,16 +4328,16 @@
       <c r="B54" s="22">
         <v>18</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="30">
         <v>19</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="30">
         <v>19</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -4321,28 +4390,28 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="34">
         <v>20</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="34">
         <v>21</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="34">
         <v>21</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="34">
         <v>20</v>
       </c>
       <c r="I55" s="23" t="s">
@@ -4375,12 +4444,12 @@
       <c r="R55" s="24">
         <v>23</v>
       </c>
-      <c r="S55" s="36"/>
-      <c r="T55" s="37">
+      <c r="S55" s="35"/>
+      <c r="T55" s="36">
         <v>23</v>
       </c>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37">
+      <c r="U55" s="35"/>
+      <c r="V55" s="36">
         <v>23</v>
       </c>
     </row>
@@ -4390,8 +4459,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="38"/>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D57" t="s">
@@ -4399,18 +4468,858 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B58" s="40"/>
-      <c r="C58" s="39" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
+      <c r="B59" s="40"/>
       <c r="C59" t="s">
         <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>2010</v>
+      </c>
+      <c r="C62">
+        <v>2011</v>
+      </c>
+      <c r="D62">
+        <v>2012</v>
+      </c>
+      <c r="E62">
+        <v>2013</v>
+      </c>
+      <c r="F62">
+        <v>2014</v>
+      </c>
+      <c r="G62">
+        <v>2015</v>
+      </c>
+      <c r="H62">
+        <v>2016</v>
+      </c>
+      <c r="I62">
+        <v>2017</v>
+      </c>
+      <c r="J62">
+        <v>2018</v>
+      </c>
+      <c r="K62">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" t="s">
+        <v>93</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" t="s">
+        <v>98</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+      <c r="J76" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+      <c r="J78" t="s">
+        <v>101</v>
+      </c>
+      <c r="K78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" t="s">
+        <v>102</v>
+      </c>
+      <c r="K79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
+        <v>103</v>
+      </c>
+      <c r="K80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>104</v>
+      </c>
+      <c r="K81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s">
+        <v>105</v>
+      </c>
+      <c r="K82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" t="s">
+        <v>106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" t="s">
+        <v>106</v>
+      </c>
+      <c r="K83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" t="s">
+        <v>107</v>
+      </c>
+      <c r="K84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F85" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K85" s="39" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
